--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,44 +24,29 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате членских взносов за уч№288 на 01.05.2018</t>
-  </si>
-  <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
-    <t>Начислена арендная плата за зем уч за 2019</t>
-  </si>
-  <si>
-    <t>Оплата членского взноса 2018</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взносов 2018 на 290 к.д.</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты взносов 2018 на 293 к.д.</t>
-  </si>
-  <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
-    <t>Оплачена арендная плата за зем уч за 2019</t>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №288</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2018 на 290 к.д.(5774,92)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2018 на 293 к.д.(8000,00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +75,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +105,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -189,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,45 +185,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,10 +540,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -574,145 +553,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>43840</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="16">
-        <v>1000</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>43586</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>12732.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>43739</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15">
-        <v>2732.06</v>
-      </c>
+      <c r="A4" s="12">
+        <v>43664</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1674.73</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>43738</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14">
-        <v>1100.1600000000001</v>
-      </c>
+      <c r="A5" s="12">
+        <v>43667</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2344</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>43667</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2344</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="A6" s="13">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10">
+        <v>2732.06</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>43667</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>43664</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1674.73</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>43664</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="13">
-        <v>5774.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43586</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
-        <v>12732.06</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>43466</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1100.1600000000001</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>43221</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>13774.92</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>43221</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2018 на 293 к.д.(8000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 213 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,10 +212,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,10 +600,40 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="13">
+        <v>43955</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43955</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>213</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43983</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 213 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 244 к.д.(500,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 262 к.д.(500,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 101 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 275 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -87,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +124,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -179,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,9 +211,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -214,6 +235,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,10 +569,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -553,86 +583,199 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43586</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>12732.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43664</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1674.73</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43667</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2344</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43739</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="9">
         <v>2732.06</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
+        <v>43840</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>43840</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>101</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20">
+        <v>14875.08</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>43955</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="4">
+      <c r="C10" s="15"/>
+      <c r="D10" s="22">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>43955</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C11" s="7">
         <v>213</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>43983</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C12" s="16"/>
+      <c r="D12" s="21">
         <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>43983</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>122</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44001</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44001</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7">
+        <v>131</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44014</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>44014</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>275</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <f>SUM(C3:C17)</f>
+        <v>32467.870000000003</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D3:D17)</f>
+        <v>6732.0599999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <f>SUM(D18,-C18)</f>
+        <v>-25735.810000000005</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 275 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 279 к.д.(2000,00)</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +136,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -237,14 +237,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,10 +551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -651,19 +650,19 @@
       <c r="C8" s="7">
         <v>101</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>43952</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21">
         <v>14875.08</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -673,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>1000</v>
       </c>
     </row>
@@ -687,7 +686,7 @@
       <c r="C11" s="7">
         <v>213</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -697,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>500</v>
       </c>
     </row>
@@ -711,7 +710,7 @@
       <c r="C13" s="7">
         <v>122</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -721,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>500</v>
       </c>
     </row>
@@ -735,7 +734,7 @@
       <c r="C15" s="7">
         <v>131</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -745,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -759,24 +758,61 @@
       <c r="C17" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="4">
-        <f>SUM(C3:C17)</f>
-        <v>32467.870000000003</v>
-      </c>
-      <c r="D18" s="4">
-        <f>SUM(D3:D17)</f>
-        <v>6732.0599999999995</v>
+      <c r="A18" s="12">
+        <v>44018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="19">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f>SUM(D18,-C18)</f>
-        <v>-25735.810000000005</v>
-      </c>
+      <c r="A19" s="11">
+        <v>44018</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <v>558</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44041</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Начислены пени за просрочку оплаты взносов 2018 на 293 к.д.(8000,00)</t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты взносов 2019 на 213 к.д.(1000,00)</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 244 к.д.(500,00)</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 279 к.д.(2000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 216 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 302 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 308 к.д.(500,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 309 к.д.(500,00)</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -105,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,7 +223,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,13 +242,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,10 +579,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -582,18 +593,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43586</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>12732.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43664</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -602,10 +613,10 @@
       <c r="C4" s="6">
         <v>1674.73</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>43667</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -617,202 +628,264 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43739</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2732.06</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43840</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>43840</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>101</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43952</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="20">
         <v>14875.08</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43955</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20">
+      <c r="C10" s="14"/>
+      <c r="D10" s="19">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>43955</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
-        <v>213</v>
-      </c>
-      <c r="D11" s="9"/>
+        <v>216</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>43983</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19">
+      <c r="C12" s="15"/>
+      <c r="D12" s="18">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>43983</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
         <v>122</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>44001</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19">
+      <c r="C14" s="15"/>
+      <c r="D14" s="18">
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>44001</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7">
         <v>131</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>44014</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>44014</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>44018</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19">
+      <c r="C18" s="15"/>
+      <c r="D18" s="18">
         <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>44018</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7">
         <v>558</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>44041</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19">
+      <c r="C20" s="15"/>
+      <c r="D20" s="18">
         <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="22">
+        <v>44041</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7">
+        <v>302</v>
+      </c>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="11">
+        <v>44047</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="18">
+        <v>500</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="11">
+        <v>44047</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>154</v>
+      </c>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44048</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>44048</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <v>154.5</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUM(C3:C25)</f>
+        <v>33639.370000000003</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUM(D3:D25)</f>
+        <v>10732.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f>SUM(D26,-C26)</f>
+        <v>-22907.310000000005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 309 к.д.(500,00)</t>
-  </si>
-  <si>
-    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -564,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -865,27 +862,22 @@
       <c r="C25" s="7">
         <v>154.5</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4">
-        <f>SUM(C3:C25)</f>
-        <v>33639.370000000003</v>
-      </c>
-      <c r="D26" s="4">
-        <f>SUM(D3:D25)</f>
-        <v>10732.06</v>
+      <c r="A26" s="23">
+        <v>44085</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="1">
-        <f>SUM(D26,-C26)</f>
-        <v>-22907.310000000005</v>
-      </c>
+      <c r="B27" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 309 к.д.(500,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 346 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019 на 369 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -249,9 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,10 +563,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C4:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +881,54 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+      <c r="A27" s="23">
+        <v>44085</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7">
+        <v>346</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>44140</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>44140</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>369</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <f>SUM(C3:C29)</f>
+        <v>34354.370000000003</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D3:D29)</f>
+        <v>12732.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Оплачено</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2019 на 369 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 90 к.д.(4000,00)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C4:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,18 +923,54 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="4">
-        <f>SUM(C3:C29)</f>
-        <v>34354.370000000003</v>
-      </c>
+      <c r="A30" s="23">
+        <v>44194</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="4">
-        <f>SUM(D3:D29)</f>
-        <v>12732.06</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="23">
+        <v>44195</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>44195</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7">
+        <v>360</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <f>SUM(C3:C32)</f>
+        <v>34714.370000000003</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(D3:D32)</f>
+        <v>16732.059999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Оплачено</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 90 к.д.(4000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 113 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,17 +254,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,10 +574,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,7 +625,7 @@
       <c r="C4" s="6">
         <v>1674.73</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -654,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -668,19 +673,19 @@
       <c r="C8" s="7">
         <v>101</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="22">
         <v>43952</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="24">
         <v>14875.08</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -690,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -714,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>500</v>
       </c>
     </row>
@@ -728,7 +733,7 @@
       <c r="C13" s="7">
         <v>122</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -738,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>500</v>
       </c>
     </row>
@@ -752,7 +757,7 @@
       <c r="C15" s="7">
         <v>131</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -762,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -786,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>2000</v>
       </c>
     </row>
@@ -800,7 +805,7 @@
       <c r="C19" s="7">
         <v>558</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -810,12 +815,12 @@
         <v>3</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>44041</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -824,7 +829,7 @@
       <c r="C21" s="7">
         <v>302</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -834,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>500</v>
       </c>
     </row>
@@ -848,7 +853,7 @@
       <c r="C23" s="7">
         <v>154</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -858,12 +863,12 @@
         <v>3</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="20">
         <v>44048</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -875,7 +880,7 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="20">
         <v>44085</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -887,7 +892,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="20">
         <v>44085</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -899,7 +904,7 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="20">
         <v>44140</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -911,10 +916,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="20">
         <v>44140</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="7">
@@ -923,34 +928,34 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>44194</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4">
+      <c r="C30" s="26"/>
+      <c r="D30" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>44195</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4">
+      <c r="C31" s="26"/>
+      <c r="D31" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="20">
         <v>44195</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="7">
@@ -958,19 +963,46 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="4">
-        <f>SUM(C3:C32)</f>
-        <v>34714.370000000003</v>
-      </c>
-      <c r="D33" s="4">
-        <f>SUM(D3:D32)</f>
-        <v>16732.059999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>44218</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>44218</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>113</v>
+      </c>
       <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <f>SUM(C3:C34)</f>
+        <v>34827.370000000003</v>
+      </c>
+      <c r="D35" s="4">
+        <f>SUM(D3:D34)</f>
+        <v>17732.059999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <f>SUM(D35,-C35)</f>
+        <v>-17095.310000000005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Оплачено</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 113 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 130 к.д.(2000,00)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +270,8 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,10 +579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C3:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -988,26 +993,55 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="4">
-        <f>SUM(C3:C34)</f>
-        <v>34827.370000000003</v>
-      </c>
-      <c r="D35" s="4">
-        <f>SUM(D3:D34)</f>
-        <v>17732.059999999998</v>
+      <c r="A35" s="22">
+        <v>44235</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="23">
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
-        <f>SUM(D35,-C35)</f>
-        <v>-17095.310000000005</v>
-      </c>
+      <c r="A36" s="20">
+        <v>44235</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7">
+        <v>260</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="4">
+        <f>SUM(C3:C36)</f>
+        <v>35087.370000000003</v>
+      </c>
+      <c r="D37" s="4">
+        <f>SUM(D4:D36)</f>
+        <v>19732.059999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <f>SUM(D37,-C37)</f>
+        <v>-15355.310000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Оплачено</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 130 к.д.(2000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 215 к.д.(1775,00)</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C3:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="8">
+      <c r="D26" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -906,7 +909,7 @@
       <c r="C27" s="7">
         <v>346</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
@@ -916,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="8">
+      <c r="D28" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -930,7 +933,7 @@
       <c r="C29" s="7">
         <v>369</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -940,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="26"/>
-      <c r="D30" s="23">
+      <c r="D30" s="25">
         <v>2000</v>
       </c>
     </row>
@@ -952,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="26"/>
-      <c r="D31" s="23">
+      <c r="D31" s="25">
         <v>2000</v>
       </c>
     </row>
@@ -966,7 +969,7 @@
       <c r="C32" s="7">
         <v>360</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
@@ -976,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="23">
+      <c r="D33" s="25">
         <v>1000</v>
       </c>
     </row>
@@ -990,7 +993,7 @@
       <c r="C34" s="7">
         <v>113</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
@@ -1000,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="23">
+      <c r="D35" s="25">
         <v>2000</v>
       </c>
     </row>
@@ -1014,29 +1017,53 @@
       <c r="C36" s="7">
         <v>260</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="4">
-        <f>SUM(C3:C36)</f>
-        <v>35087.370000000003</v>
-      </c>
-      <c r="D37" s="4">
-        <f>SUM(D4:D36)</f>
-        <v>19732.059999999998</v>
+      <c r="A37" s="22">
+        <v>44320</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="25">
+        <v>1775</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4">
-        <f>SUM(D37,-C37)</f>
-        <v>-15355.310000000005</v>
-      </c>
+      <c r="A38" s="20">
+        <v>44320</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7">
+        <v>381.63</v>
+      </c>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="4">
+        <f>SUM(C3:C38)</f>
+        <v>35469</v>
+      </c>
+      <c r="D39" s="4">
+        <f>SUM(D3:D38)</f>
+        <v>21507.059999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <f>SUM(D39,-C39)</f>
+        <v>-13961.940000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Оплачено</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 215 к.д.(1775,00)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,6 +281,9 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -582,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,26 +1053,50 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="4">
-        <f>SUM(C3:C38)</f>
-        <v>35469</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="A39" s="29">
+        <v>44317</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="31">
+        <v>15276.18</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>44197</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="31">
+        <v>565.21</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="4">
+        <f>SUM(C3:C40)</f>
+        <v>51310.39</v>
+      </c>
+      <c r="D41" s="4">
         <f>SUM(D3:D38)</f>
         <v>21507.059999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4">
-        <f>SUM(D39,-C39)</f>
-        <v>-13961.940000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
+        <f>SUM(D41,-C41)</f>
+        <v>-29803.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Оплачено</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 311 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,11 +232,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +300,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -591,10 +611,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1077,26 +1097,50 @@
       <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="4">
-        <f>SUM(C3:C40)</f>
-        <v>51310.39</v>
-      </c>
-      <c r="D41" s="4">
-        <f>SUM(D3:D38)</f>
-        <v>21507.059999999998</v>
+      <c r="A41" s="22">
+        <v>44417</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="25">
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
-        <f>SUM(D41,-C41)</f>
-        <v>-29803.33</v>
-      </c>
+      <c r="A42" s="33">
+        <v>44417</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="34">
+        <v>311</v>
+      </c>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="32">
+        <f>SUM(C3:C42)</f>
+        <v>51621.39</v>
+      </c>
+      <c r="D43" s="32">
+        <f>SUM(D3:D42)</f>
+        <v>22507.059999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <f>SUM(D43,-C43)</f>
+        <v>-29114.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Оплачено</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 311 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 313 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 284 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 317 к.д.(2000,00)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.20 по 31.12.20</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов на 344 к.д.(1000,00)</t>
   </si>
 </sst>
 </file>
@@ -144,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -249,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,6 +325,12 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,10 +638,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,296 +716,296 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="37">
+        <v>43831</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="39">
+        <v>550.08000000000004</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>43840</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="16">
+      <c r="C8" s="4"/>
+      <c r="D8" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>43840</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>101</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>43952</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24">
-        <v>14875.08</v>
-      </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="C10" s="24">
+        <v>14325</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>43955</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17">
+      <c r="C11" s="14"/>
+      <c r="D11" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>43955</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>216</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>43983</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>43983</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>122</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>44001</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>44001</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>131</v>
       </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>44014</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="16">
+      <c r="C17" s="4"/>
+      <c r="D17" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>44014</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>44018</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>44018</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>558</v>
       </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>44041</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <v>44041</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>302</v>
       </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>44047</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16">
-        <v>500</v>
-      </c>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44047</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>154</v>
-      </c>
-      <c r="D23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
+        <v>44047</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7">
+        <v>154</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>44048</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="16">
+      <c r="C25" s="7"/>
+      <c r="D25" s="16">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>44048</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7">
-        <v>154.5</v>
-      </c>
-      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <v>44085</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="16">
-        <v>1000</v>
-      </c>
+        <v>44048</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <v>154.5</v>
+      </c>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44085</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7">
-        <v>346</v>
-      </c>
-      <c r="D27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="16">
+        <v>1000</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
-        <v>44140</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="16">
-        <v>1000</v>
-      </c>
+        <v>44085</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7">
+        <v>346</v>
+      </c>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>44140</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>44140</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
         <v>369</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>44194</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25">
-        <v>2000</v>
-      </c>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>20</v>
@@ -989,158 +1016,263 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="22">
         <v>44195</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>44195</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>360</v>
       </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>44218</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25">
+      <c r="C34" s="26"/>
+      <c r="D34" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>44218</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <v>113</v>
       </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>44235</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25">
+      <c r="C36" s="26"/>
+      <c r="D36" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>44235</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>260</v>
       </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
         <v>44320</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B38" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="25">
+      <c r="C38" s="26"/>
+      <c r="D38" s="25">
         <v>1775</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
         <v>44320</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>381.63</v>
-      </c>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
-        <v>44317</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="31">
-        <v>15276.18</v>
       </c>
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
+        <v>44317</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="31">
+        <v>15276.18</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
         <v>44197</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C41" s="31">
         <v>565.21</v>
       </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>44389</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>44389</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="34">
+        <v>284</v>
+      </c>
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>44417</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25">
+      <c r="C44" s="26"/>
+      <c r="D44" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>44417</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C45" s="34">
         <v>311</v>
       </c>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="32">
-        <f>SUM(C3:C42)</f>
-        <v>51621.39</v>
-      </c>
-      <c r="D43" s="32">
-        <f>SUM(D3:D42)</f>
-        <v>22507.059999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4">
-        <f>SUM(D43,-C43)</f>
-        <v>-29114.33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>44419</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>44419</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="34">
+        <v>313</v>
+      </c>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>44424</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>44424</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="36">
+        <v>634</v>
+      </c>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>44452</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>44452</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="36">
+        <v>344</v>
+      </c>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="32">
+        <f>SUM(C3:C51)</f>
+        <v>53196.39</v>
+      </c>
+      <c r="D52" s="32">
+        <f>SUM(D3:D51)</f>
+        <v>27507.059999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <f>SUM(D52,-C52)</f>
+        <v>-25689.33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Оплачено</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов на 344 к.д.(1000,00)</t>
+  </si>
+  <si>
+    <t>Оплачена аренда зем участка 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -270,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -318,9 +330,6 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -331,6 +340,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,10 +655,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,16 +733,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="34">
         <v>43831</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>550.08000000000004</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1096,183 +1113,208 @@
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="25">
-        <v>1775</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="22">
         <v>44320</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>44320</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C40" s="7">
         <v>381.63</v>
       </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
         <v>44317</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C41" s="44">
         <v>15276.18</v>
       </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
         <v>44197</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B42" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C42" s="44">
         <v>565.21</v>
       </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
         <v>44389</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="25">
+      <c r="C43" s="26"/>
+      <c r="D43" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
         <v>44389</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B44" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C44" s="31">
         <v>284</v>
       </c>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
         <v>44417</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B45" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25">
+      <c r="C45" s="26"/>
+      <c r="D45" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
         <v>44417</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C46" s="31">
         <v>311</v>
       </c>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
         <v>44419</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B47" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25">
+      <c r="C47" s="26"/>
+      <c r="D47" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
         <v>44419</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C48" s="31">
         <v>313</v>
       </c>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
         <v>44424</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="25">
+      <c r="C49" s="26"/>
+      <c r="D49" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
         <v>44424</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C50" s="33">
         <v>634</v>
       </c>
-      <c r="D49" s="32"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
         <v>44452</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25">
+      <c r="C51" s="26"/>
+      <c r="D51" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
         <v>44452</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C52" s="33">
         <v>344</v>
       </c>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="32">
-        <f>SUM(C3:C51)</f>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="38">
+        <v>44475</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29">
+        <f>SUM(C3:C52)</f>
         <v>53196.39</v>
       </c>
-      <c r="D52" s="32">
-        <f>SUM(D3:D51)</f>
+      <c r="D54" s="29">
+        <f>SUM(D3:D52)</f>
         <v>27507.059999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <f>SUM(D52,-C52)</f>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <f>SUM(D54,-C54)</f>
         <v>-25689.33</v>
       </c>
+      <c r="G55" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Оплачено</t>
   </si>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,7 +325,6 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -328,8 +333,6 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +351,7 @@
     <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -655,10 +659,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,8 +674,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -685,641 +689,656 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>43586</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>12732.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>43664</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1674.73</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>43667</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2344</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>43739</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8">
-        <v>2732.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>43831</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="36">
-        <v>550.08000000000004</v>
-      </c>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43840</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="16">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>44498</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43840</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
-        <v>101</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>43952</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="24">
-        <v>14325</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>43955</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>44475</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43955</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7">
-        <v>216</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>43983</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>43983</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>122</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>44001</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44001</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>131</v>
-      </c>
-      <c r="D16" s="16"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>44452</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>44452</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="30">
+        <v>344</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>44424</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>44424</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30">
+        <v>634</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>44419</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>44419</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28">
+        <v>313</v>
+      </c>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>44417</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>44417</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28">
+        <v>311</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>44389</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>44389</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="28">
+        <v>284</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>44197</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="41">
+        <v>565.21</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="41">
+        <v>15276.18</v>
+      </c>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>44014</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="16">
+      <c r="A17" s="21">
+        <v>44320</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>44320</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>44320</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>381.63</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>44235</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>44235</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7">
+        <v>260</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>44218</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>44014</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7">
-        <v>275</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>44018</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>44218</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
+        <v>113</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>44195</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44018</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7">
-        <v>558</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>44041</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>44041</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7">
-        <v>302</v>
-      </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>44047</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>44047</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>154</v>
-      </c>
-      <c r="D24" s="16"/>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>44048</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="16">
-        <v>500</v>
-      </c>
+      <c r="A25" s="19">
+        <v>44195</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7">
+        <v>360</v>
+      </c>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>44048</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>154.5</v>
-      </c>
-      <c r="D26" s="8"/>
+      <c r="A26" s="21">
+        <v>44194</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24">
+        <v>2000</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>44085</v>
+      <c r="A27" s="19">
+        <v>44140</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
+        <v>44140</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7">
+        <v>369</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>44085</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="7">
-        <v>346</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>44140</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>44140</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>19</v>
+      <c r="A30" s="19">
+        <v>44085</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>369</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>44194</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25">
+      <c r="A31" s="11">
+        <v>44048</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>44048</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="7">
+        <v>154.5</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>44047</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>44047</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7">
+        <v>154</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>44041</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>44041</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7">
+        <v>302</v>
+      </c>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>44018</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>44195</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>44195</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7">
-        <v>360</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>44218</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>44018</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7">
+        <v>558</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>44014</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>44218</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="7">
-        <v>113</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>44235</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>44235</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7">
-        <v>260</v>
-      </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>44320</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>44320</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="25">
-        <v>450</v>
-      </c>
-    </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>44320</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>24</v>
+      <c r="A40" s="10">
+        <v>44014</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C40" s="7">
-        <v>381.63</v>
-      </c>
-      <c r="D40" s="15"/>
+        <v>275</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
-        <v>44317</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="44">
-        <v>15276.18</v>
-      </c>
-      <c r="D41" s="41"/>
+      <c r="A41" s="11">
+        <v>44001</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
-        <v>44197</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="44">
-        <v>565.21</v>
-      </c>
-      <c r="D42" s="41"/>
+      <c r="A42" s="10">
+        <v>44001</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7">
+        <v>131</v>
+      </c>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>44389</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25">
+      <c r="A43" s="11">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7">
+        <v>122</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43955</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>44389</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="31">
-        <v>284</v>
-      </c>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>44417</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>43955</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="7">
+        <v>216</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>43952</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="23">
+        <v>14325</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>43840</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>44417</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="31">
-        <v>311</v>
-      </c>
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>44419</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
-        <v>44419</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="31">
-        <v>313</v>
-      </c>
-      <c r="D48" s="32"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>44424</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
-        <v>44424</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="33">
-        <v>634</v>
-      </c>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>44452</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
-        <v>44452</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="33">
-        <v>344</v>
-      </c>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
-        <v>44475</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29">
-        <f>SUM(C3:C52)</f>
-        <v>53196.39</v>
-      </c>
-      <c r="D54" s="29">
-        <f>SUM(D3:D52)</f>
-        <v>27507.059999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="4"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>43840</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="7">
+        <v>101</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>43739</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="8">
+        <v>2732.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <v>43831</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="33">
+        <v>550.08000000000004</v>
+      </c>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>43667</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7">
+        <v>2344</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>43664</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1674.73</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>43586</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8">
+        <v>12732.06</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="15">
+        <f>SUM(C3:C54)</f>
+        <v>53196.390000000007</v>
+      </c>
       <c r="D55" s="4">
-        <f>SUM(D54,-C54)</f>
-        <v>-25689.33</v>
-      </c>
-      <c r="G55" s="37"/>
+        <f>SUM(D3:D54)</f>
+        <v>29507.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="15">
+        <f>SUM(D55,-C55)</f>
+        <v>-23689.330000000005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/uch/uch288.xlsx
+++ b/sputnik/personal/uch/uch288.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Оплачено</t>
   </si>
@@ -659,10 +659,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>34</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
-        <v>44475</v>
+        <v>44498</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>34</v>
@@ -715,80 +715,80 @@
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>44452</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24">
+      <c r="A5" s="35">
+        <v>44475</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>44452</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="30">
-        <v>344</v>
-      </c>
-      <c r="D6" s="26"/>
+      <c r="A6" s="35">
+        <v>44473</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38">
+        <v>2276</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="24">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="30">
-        <v>634</v>
+        <v>344</v>
       </c>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44419</v>
+        <v>44424</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
-        <v>44419</v>
+        <v>44424</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="28">
-        <v>313</v>
-      </c>
-      <c r="D10" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="C10" s="30">
+        <v>634</v>
+      </c>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>20</v>
@@ -800,19 +800,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="28">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>44389</v>
+        <v>44417</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>20</v>
@@ -824,151 +824,151 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
+        <v>44417</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="28">
+        <v>311</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>44389</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>44389</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C16" s="28">
         <v>284</v>
       </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>44197</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C17" s="41">
         <v>565.21</v>
       </c>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>44317</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B18" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C18" s="41">
         <v>15276.18</v>
       </c>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
         <v>44320</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24">
+      <c r="C19" s="25"/>
+      <c r="D19" s="24">
         <v>1325</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>44320</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>44320</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
-        <v>381.63</v>
-      </c>
-      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>44235</v>
+        <v>44320</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="24">
-        <v>2000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
-        <v>44235</v>
+        <v>44320</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>260</v>
+        <v>381.63</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>44195</v>
+        <v>44218</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="24">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
-        <v>44195</v>
+        <v>44218</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>20</v>
@@ -980,199 +980,199 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
-        <v>44140</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="16">
-        <v>1000</v>
-      </c>
+        <v>44195</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7">
+        <v>360</v>
+      </c>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>44140</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7">
-        <v>369</v>
-      </c>
-      <c r="D28" s="15"/>
+      <c r="A28" s="21">
+        <v>44194</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
-        <v>44085</v>
+        <v>44140</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
+        <v>44140</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="7">
+        <v>369</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
         <v>44085</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>346</v>
-      </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>44048</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="16">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>44048</v>
+        <v>44085</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>154.5</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>346</v>
+      </c>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>44047</v>
+      <c r="A34" s="19">
+        <v>44048</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>154</v>
-      </c>
-      <c r="D34" s="16"/>
+        <v>154.5</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>44041</v>
+        <v>44047</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>44041</v>
+      <c r="A36" s="11">
+        <v>44047</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>44018</v>
+        <v>44041</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>44018</v>
+      <c r="A38" s="18">
+        <v>44041</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="7">
-        <v>558</v>
+        <v>302</v>
       </c>
       <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>44014</v>
+        <v>44018</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>44014</v>
+        <v>44018</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" s="7">
-        <v>275</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>558</v>
+      </c>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>44001</v>
+        <v>44014</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="16">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>44001</v>
+        <v>44014</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42" s="7">
-        <v>131</v>
-      </c>
-      <c r="D42" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>43983</v>
+        <v>44001</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
@@ -1184,155 +1184,179 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>43983</v>
+        <v>44001</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>43955</v>
+        <v>43983</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
-        <v>1000</v>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16">
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7">
+        <v>122</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>43955</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>43955</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C48" s="7">
         <v>216</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
         <v>43952</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B49" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C49" s="23">
         <v>14325</v>
       </c>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>43840</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>43840</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="7">
-        <v>101</v>
-      </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>43739</v>
+        <v>43840</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="8">
+      <c r="D50" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>43840</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="7">
+        <v>101</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>43739</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="8">
         <v>2732.06</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
         <v>43831</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B53" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C53" s="33">
         <v>550.08000000000004</v>
       </c>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>43667</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C54" s="7">
         <v>2344</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>43664</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C55" s="6">
         <v>1674.73</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>43586</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C56" s="8">
         <v>12732.06</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="15">
-        <f>SUM(C3:C54)</f>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="15">
+        <f>SUM(C4:C56)</f>
         <v>53196.390000000007</v>
       </c>
-      <c r="D55" s="4">
-        <f>SUM(D3:D54)</f>
-        <v>29507.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="15">
-        <f>SUM(D55,-C55)</f>
-        <v>-23689.330000000005</v>
+      <c r="D57" s="4">
+        <f>SUM(D4:D56)</f>
+        <v>31783.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="15">
+        <f>SUM(D57,-C57)</f>
+        <v>-21413.330000000005</v>
       </c>
     </row>
   </sheetData>
